--- a/Code/Results/Cases/Case_5_72/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_72/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.902332153433747</v>
+        <v>1.424036728313183</v>
       </c>
       <c r="C2">
-        <v>1.078227539620713</v>
+        <v>0.3236541775025898</v>
       </c>
       <c r="D2">
-        <v>0.03757545334965329</v>
+        <v>0.04507898464314053</v>
       </c>
       <c r="E2">
-        <v>0.1279755769589102</v>
+        <v>0.0651126267579123</v>
       </c>
       <c r="F2">
-        <v>2.474514786563503</v>
+        <v>1.639132484668778</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.252383077000275</v>
+        <v>0.4641035925004076</v>
       </c>
       <c r="N2">
-        <v>1.024806871487385</v>
+        <v>1.535336609826786</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.354733989029853</v>
+        <v>1.285519530909085</v>
       </c>
       <c r="C3">
-        <v>0.9257542027929162</v>
+        <v>0.283749751257119</v>
       </c>
       <c r="D3">
-        <v>0.03634958603254645</v>
+        <v>0.04494209123490833</v>
       </c>
       <c r="E3">
-        <v>0.1107643116811623</v>
+        <v>0.06121158810412197</v>
       </c>
       <c r="F3">
-        <v>2.181968208376773</v>
+        <v>1.574188105213778</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.075788089421081</v>
+        <v>0.4201255521914007</v>
       </c>
       <c r="N3">
-        <v>1.034906324952487</v>
+        <v>1.541218807427441</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.025185837995139</v>
+        <v>1.201211014341879</v>
       </c>
       <c r="C4">
-        <v>0.8339497512868945</v>
+        <v>0.2593407130870844</v>
       </c>
       <c r="D4">
-        <v>0.03573912351837194</v>
+        <v>0.04488412776229467</v>
       </c>
       <c r="E4">
-        <v>0.1005344498912528</v>
+        <v>0.05886348798738084</v>
       </c>
       <c r="F4">
-        <v>2.008684620698688</v>
+        <v>1.535440081974045</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.9697736238233858</v>
+        <v>0.3933849671949829</v>
       </c>
       <c r="N4">
-        <v>1.043353875257964</v>
+        <v>1.54540087532142</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.89231553053321</v>
+        <v>1.167037541836066</v>
       </c>
       <c r="C5">
-        <v>0.7969198655493699</v>
+        <v>0.24941592016512</v>
       </c>
       <c r="D5">
-        <v>0.03552219094265396</v>
+        <v>0.04486699105699543</v>
       </c>
       <c r="E5">
-        <v>0.09643891203088728</v>
+        <v>0.05791825864116262</v>
       </c>
       <c r="F5">
-        <v>1.939467536814718</v>
+        <v>1.51993037736311</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9270878304392198</v>
+        <v>0.382552456019404</v>
       </c>
       <c r="N5">
-        <v>1.047314746109876</v>
+        <v>1.547247549127832</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.87033147493463</v>
+        <v>1.161374008881012</v>
       </c>
       <c r="C6">
-        <v>0.7907920534235018</v>
+        <v>0.2477692164712835</v>
       </c>
       <c r="D6">
-        <v>0.03548798586415103</v>
+        <v>0.04486453490814313</v>
       </c>
       <c r="E6">
-        <v>0.09576295275961755</v>
+        <v>0.05776200080712712</v>
       </c>
       <c r="F6">
-        <v>1.928053104757993</v>
+        <v>1.517371846065373</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.9200285542406235</v>
+        <v>0.3807575801321761</v>
       </c>
       <c r="N6">
-        <v>1.048002489690319</v>
+        <v>1.547562762902601</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.023388459791988</v>
+        <v>1.200749402902204</v>
       </c>
       <c r="C7">
-        <v>0.8334489035997024</v>
+        <v>0.2592067759423458</v>
       </c>
       <c r="D7">
-        <v>0.03573607385329325</v>
+        <v>0.04488387049747544</v>
       </c>
       <c r="E7">
-        <v>0.1004789342310417</v>
+        <v>0.05885069344606109</v>
       </c>
       <c r="F7">
-        <v>2.007745722978328</v>
+        <v>1.53522978147079</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.9691959731900681</v>
+        <v>0.3932386168815967</v>
       </c>
       <c r="N7">
-        <v>1.043405251763318</v>
+        <v>1.545425204728474</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.711971053050149</v>
+        <v>1.376119883514377</v>
       </c>
       <c r="C8">
-        <v>1.025230217963951</v>
+        <v>0.3098752328427565</v>
       </c>
       <c r="D8">
-        <v>0.03712074357893158</v>
+        <v>0.04502632242768811</v>
       </c>
       <c r="E8">
-        <v>0.1219635037055653</v>
+        <v>0.06375762959570608</v>
       </c>
       <c r="F8">
-        <v>2.372203309209226</v>
+        <v>1.616503545929433</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.190933588814303</v>
+        <v>0.4488846923908767</v>
       </c>
       <c r="N8">
-        <v>1.027793371237593</v>
+        <v>1.537245818491783</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.12847055576475</v>
+        <v>1.726085186550279</v>
       </c>
       <c r="C9">
-        <v>1.419594892843293</v>
+        <v>0.4100269203997868</v>
       </c>
       <c r="D9">
-        <v>0.0411695097440159</v>
+        <v>0.04551621620715451</v>
       </c>
       <c r="E9">
-        <v>0.1673843838187636</v>
+        <v>0.07376463389191201</v>
       </c>
       <c r="F9">
-        <v>3.147353427198027</v>
+        <v>1.784988902980103</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.64964278402519</v>
+        <v>0.5601563451744482</v>
       </c>
       <c r="N9">
-        <v>1.017390668682452</v>
+        <v>1.525776409137237</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.230932870393588</v>
+        <v>1.987179816296816</v>
       </c>
       <c r="C10">
-        <v>1.726807759650114</v>
+        <v>0.4841779654797165</v>
       </c>
       <c r="D10">
-        <v>0.04529575390316865</v>
+        <v>0.04600951389034691</v>
       </c>
       <c r="E10">
-        <v>0.203755030630127</v>
+        <v>0.08136644222482659</v>
       </c>
       <c r="F10">
-        <v>3.7701447444054</v>
+        <v>1.914560368363624</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.00888800627007</v>
+        <v>0.6433245139769213</v>
       </c>
       <c r="N10">
-        <v>1.025946235021237</v>
+        <v>1.520198712223333</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.751711803496107</v>
+        <v>2.106884454330725</v>
       </c>
       <c r="C11">
-        <v>1.872095289547815</v>
+        <v>0.5180544894164996</v>
       </c>
       <c r="D11">
-        <v>0.04751791149002571</v>
+        <v>0.04626399724232755</v>
       </c>
       <c r="E11">
-        <v>0.2212263892226716</v>
+        <v>0.08488230762623772</v>
       </c>
       <c r="F11">
-        <v>4.069520374038348</v>
+        <v>1.974813923900285</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.179243359810869</v>
+        <v>0.6814913734585133</v>
       </c>
       <c r="N11">
-        <v>1.034418294437955</v>
+        <v>1.518293653530364</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.952278526321948</v>
+        <v>2.15235206318988</v>
       </c>
       <c r="C12">
-        <v>1.928084747735738</v>
+        <v>0.5309049487149764</v>
       </c>
       <c r="D12">
-        <v>0.04841891687723887</v>
+        <v>0.04636478001050648</v>
       </c>
       <c r="E12">
-        <v>0.228003635771735</v>
+        <v>0.08622224657718647</v>
       </c>
       <c r="F12">
-        <v>4.185651721536402</v>
+        <v>1.997822884246318</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.244963111945765</v>
+        <v>0.695993890904802</v>
       </c>
       <c r="N12">
-        <v>1.038393909636312</v>
+        <v>1.51766432021094</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.908922966636965</v>
+        <v>2.142553593153252</v>
       </c>
       <c r="C13">
-        <v>1.915980013786225</v>
+        <v>0.528136365636044</v>
       </c>
       <c r="D13">
-        <v>0.04822204275777153</v>
+        <v>0.04634287680991633</v>
       </c>
       <c r="E13">
-        <v>0.2265363599504155</v>
+        <v>0.08593328213702023</v>
       </c>
       <c r="F13">
-        <v>4.160509688773686</v>
+        <v>1.992858882369234</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.230751562605931</v>
+        <v>0.6928682838774876</v>
       </c>
       <c r="N13">
-        <v>1.037501607319868</v>
+        <v>1.5177957449811</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.768141473257913</v>
+        <v>2.110622310977703</v>
       </c>
       <c r="C14">
-        <v>1.876680964018362</v>
+        <v>0.5191112527258497</v>
       </c>
       <c r="D14">
-        <v>0.04759078100102698</v>
+        <v>0.04627219968785568</v>
       </c>
       <c r="E14">
-        <v>0.2217805466010532</v>
+        <v>0.08499237226347134</v>
       </c>
       <c r="F14">
-        <v>4.079016272334769</v>
+        <v>1.976703010314225</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.184624555715502</v>
+        <v>0.68268350163234</v>
       </c>
       <c r="N14">
-        <v>1.03472929491933</v>
+        <v>1.518240026001294</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.682365480407725</v>
+        <v>2.091081582217782</v>
       </c>
       <c r="C15">
-        <v>1.852741562569179</v>
+        <v>0.5135860355192676</v>
       </c>
       <c r="D15">
-        <v>0.0472121941078214</v>
+        <v>0.04622948562909102</v>
       </c>
       <c r="E15">
-        <v>0.2188893919729153</v>
+        <v>0.08441715968757535</v>
       </c>
       <c r="F15">
-        <v>4.029474076196379</v>
+        <v>1.966832220685575</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.156534978957893</v>
+        <v>0.6764515312012804</v>
       </c>
       <c r="N15">
-        <v>1.033134686982834</v>
+        <v>1.518524185800743</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.197334380960854</v>
+        <v>1.97937592942435</v>
       </c>
       <c r="C16">
-        <v>1.717438607284805</v>
+        <v>0.4819670823923161</v>
       </c>
       <c r="D16">
-        <v>0.04515827745381529</v>
+        <v>0.04599349574555589</v>
       </c>
       <c r="E16">
-        <v>0.2026341535636647</v>
+        <v>0.08113785584102828</v>
       </c>
       <c r="F16">
-        <v>3.750940122287801</v>
+        <v>1.910649353383661</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.997911733506371</v>
+        <v>0.6408370647884425</v>
       </c>
       <c r="N16">
-        <v>1.02549358980032</v>
+        <v>1.52033603317679</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.905104818727978</v>
+        <v>1.911089589106041</v>
       </c>
       <c r="C17">
-        <v>1.635967994520797</v>
+        <v>0.4626079122068631</v>
       </c>
       <c r="D17">
-        <v>0.04399310957168723</v>
+        <v>0.04585649130098091</v>
       </c>
       <c r="E17">
-        <v>0.1929176839446782</v>
+        <v>0.07914108093479655</v>
       </c>
       <c r="F17">
-        <v>3.584481850394923</v>
+        <v>1.87652137057708</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.902517092860805</v>
+        <v>0.6190752488235773</v>
       </c>
       <c r="N17">
-        <v>1.022050562212826</v>
+        <v>1.521610295426342</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.73879451196575</v>
+        <v>1.871900506117299</v>
       </c>
       <c r="C18">
-        <v>1.58961698380989</v>
+        <v>0.4514865818217686</v>
       </c>
       <c r="D18">
-        <v>0.04335472518584282</v>
+        <v>0.04578051574191022</v>
       </c>
       <c r="E18">
-        <v>0.1874142522065227</v>
+        <v>0.07799801065640111</v>
       </c>
       <c r="F18">
-        <v>3.490220108683303</v>
+        <v>1.857015012658849</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.848286415597101</v>
+        <v>0.6065896944466971</v>
       </c>
       <c r="N18">
-        <v>1.020493775703613</v>
+        <v>1.522402659140639</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.682772809213077</v>
+        <v>1.858646645007582</v>
       </c>
       <c r="C19">
-        <v>1.574005835391063</v>
+        <v>0.4477233780573329</v>
       </c>
       <c r="D19">
-        <v>0.04314376816341081</v>
+        <v>0.04575527433487991</v>
       </c>
       <c r="E19">
-        <v>0.1855647496852271</v>
+        <v>0.07761191034523307</v>
       </c>
       <c r="F19">
-        <v>3.458546439633437</v>
+        <v>1.850431533835973</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.830028498462838</v>
+        <v>0.60236762099629</v>
       </c>
       <c r="N19">
-        <v>1.020036414534403</v>
+        <v>1.522681114199287</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.936025777740042</v>
+        <v>1.918349709972347</v>
       </c>
       <c r="C20">
-        <v>1.644586851977635</v>
+        <v>0.4646673167825384</v>
       </c>
       <c r="D20">
-        <v>0.04411378803064281</v>
+        <v>0.04587078255442378</v>
       </c>
       <c r="E20">
-        <v>0.1939430115038334</v>
+        <v>0.07935307809231773</v>
       </c>
       <c r="F20">
-        <v>3.602045339002302</v>
+        <v>1.880141579567464</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.912604583580958</v>
+        <v>0.6213885835580726</v>
       </c>
       <c r="N20">
-        <v>1.022372515925682</v>
+        <v>1.521468487744983</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.809396021257044</v>
+        <v>2.119997522320887</v>
       </c>
       <c r="C21">
-        <v>1.888196093070462</v>
+        <v>0.5217615351793938</v>
       </c>
       <c r="D21">
-        <v>0.04777449363137976</v>
+        <v>0.04629283871240375</v>
       </c>
       <c r="E21">
-        <v>0.2231728187368773</v>
+        <v>0.08526850604746272</v>
       </c>
       <c r="F21">
-        <v>4.102873810371136</v>
+        <v>1.98144313385751</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.198138447493889</v>
+        <v>0.6856736609248912</v>
       </c>
       <c r="N21">
-        <v>1.035521794762019</v>
+        <v>1.518107021846191</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.400128504246368</v>
+        <v>2.252592724921442</v>
       </c>
       <c r="C22">
-        <v>2.053182782787928</v>
+        <v>0.5592056774826233</v>
       </c>
       <c r="D22">
-        <v>0.05052005737601917</v>
+        <v>0.0465944562997862</v>
       </c>
       <c r="E22">
-        <v>0.2432330348859182</v>
+        <v>0.0891845765622179</v>
       </c>
       <c r="F22">
-        <v>4.446581015568711</v>
+        <v>2.048771900394655</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.391932477459434</v>
+        <v>0.727977308238394</v>
       </c>
       <c r="N22">
-        <v>1.048654809224345</v>
+        <v>1.516447316778013</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.08279564522195</v>
+        <v>2.181748969656098</v>
       </c>
       <c r="C23">
-        <v>1.964530724170004</v>
+        <v>0.5392087149083977</v>
       </c>
       <c r="D23">
-        <v>0.0490185731149424</v>
+        <v>0.04643108834321197</v>
       </c>
       <c r="E23">
-        <v>0.2324282445045256</v>
+        <v>0.08708983740765319</v>
       </c>
       <c r="F23">
-        <v>4.261465921601513</v>
+        <v>2.012733320925321</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.287762781012574</v>
+        <v>0.7053720051120109</v>
       </c>
       <c r="N23">
-        <v>1.041188661937838</v>
+        <v>1.517283593028182</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.922041171381238</v>
+        <v>1.915067192714673</v>
       </c>
       <c r="C24">
-        <v>1.64068876081717</v>
+        <v>0.4637362335541297</v>
       </c>
       <c r="D24">
-        <v>0.04405913194732847</v>
+        <v>0.04586431279468428</v>
       </c>
       <c r="E24">
-        <v>0.1934792053748708</v>
+        <v>0.07925721892691939</v>
       </c>
       <c r="F24">
-        <v>3.59410044200169</v>
+        <v>1.878504527427594</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.90804213527764</v>
+        <v>0.6203426452986065</v>
       </c>
       <c r="N24">
-        <v>1.022225652144556</v>
+        <v>1.521532412904037</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.736162724735777</v>
+        <v>1.630732611316034</v>
       </c>
       <c r="C25">
-        <v>1.310355782715476</v>
+        <v>0.3828396058995054</v>
       </c>
       <c r="D25">
-        <v>0.03989987161523345</v>
+        <v>0.04536063297872772</v>
       </c>
       <c r="E25">
-        <v>0.1546512257469814</v>
+        <v>0.07101474698392707</v>
       </c>
       <c r="F25">
-        <v>2.929632318038244</v>
+        <v>1.738410230205375</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.522269992624132</v>
+        <v>0.5298133770013607</v>
       </c>
       <c r="N25">
-        <v>1.017676184199672</v>
+        <v>1.528383477871927</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_72/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_72/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.424036728313183</v>
+        <v>3.902332153433747</v>
       </c>
       <c r="C2">
-        <v>0.3236541775025898</v>
+        <v>1.078227539620769</v>
       </c>
       <c r="D2">
-        <v>0.04507898464314053</v>
+        <v>0.0375754533495396</v>
       </c>
       <c r="E2">
-        <v>0.0651126267579123</v>
+        <v>0.1279755769589421</v>
       </c>
       <c r="F2">
-        <v>1.639132484668778</v>
+        <v>2.47451478656356</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4641035925004076</v>
+        <v>1.252383077000275</v>
       </c>
       <c r="N2">
-        <v>1.535336609826786</v>
+        <v>1.024806871487428</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.285519530909085</v>
+        <v>3.354733989029967</v>
       </c>
       <c r="C3">
-        <v>0.283749751257119</v>
+        <v>0.925754202792973</v>
       </c>
       <c r="D3">
-        <v>0.04494209123490833</v>
+        <v>0.0363495860325429</v>
       </c>
       <c r="E3">
-        <v>0.06121158810412197</v>
+        <v>0.1107643116811623</v>
       </c>
       <c r="F3">
-        <v>1.574188105213778</v>
+        <v>2.181968208376787</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4201255521914007</v>
+        <v>1.075788089421074</v>
       </c>
       <c r="N3">
-        <v>1.541218807427441</v>
+        <v>1.034906324952473</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.201211014341879</v>
+        <v>3.025185837995309</v>
       </c>
       <c r="C4">
-        <v>0.2593407130870844</v>
+        <v>0.8339497512866956</v>
       </c>
       <c r="D4">
-        <v>0.04488412776229467</v>
+        <v>0.03573912351824049</v>
       </c>
       <c r="E4">
-        <v>0.05886348798738084</v>
+        <v>0.1005344498912741</v>
       </c>
       <c r="F4">
-        <v>1.535440081974045</v>
+        <v>2.008684620698702</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3933849671949829</v>
+        <v>0.9697736238233787</v>
       </c>
       <c r="N4">
-        <v>1.54540087532142</v>
+        <v>1.043353875257992</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.167037541836066</v>
+        <v>2.892315530533267</v>
       </c>
       <c r="C5">
-        <v>0.24941592016512</v>
+        <v>0.7969198655495688</v>
       </c>
       <c r="D5">
-        <v>0.04486699105699543</v>
+        <v>0.03552219094253672</v>
       </c>
       <c r="E5">
-        <v>0.05791825864116262</v>
+        <v>0.09643891203083754</v>
       </c>
       <c r="F5">
-        <v>1.51993037736311</v>
+        <v>1.939467536814703</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.382552456019404</v>
+        <v>0.9270878304391914</v>
       </c>
       <c r="N5">
-        <v>1.547247549127832</v>
+        <v>1.047314746109919</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.161374008881012</v>
+        <v>2.870331474934687</v>
       </c>
       <c r="C6">
-        <v>0.2477692164712835</v>
+        <v>0.790792053423587</v>
       </c>
       <c r="D6">
-        <v>0.04486453490814313</v>
+        <v>0.03548798586414748</v>
       </c>
       <c r="E6">
-        <v>0.05776200080712712</v>
+        <v>0.09576295275964952</v>
       </c>
       <c r="F6">
-        <v>1.517371846065373</v>
+        <v>1.928053104757993</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3807575801321761</v>
+        <v>0.9200285542406235</v>
       </c>
       <c r="N6">
-        <v>1.547562762902601</v>
+        <v>1.048002489690319</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.200749402902204</v>
+        <v>3.023388459792159</v>
       </c>
       <c r="C7">
-        <v>0.2592067759423458</v>
+        <v>0.8334489035997592</v>
       </c>
       <c r="D7">
-        <v>0.04488387049747544</v>
+        <v>0.03573607385306588</v>
       </c>
       <c r="E7">
-        <v>0.05885069344606109</v>
+        <v>0.1004789342310204</v>
       </c>
       <c r="F7">
-        <v>1.53522978147079</v>
+        <v>2.007745722978314</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3932386168815967</v>
+        <v>0.9691959731900823</v>
       </c>
       <c r="N7">
-        <v>1.545425204728474</v>
+        <v>1.04340525176336</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.376119883514377</v>
+        <v>3.711971053050263</v>
       </c>
       <c r="C8">
-        <v>0.3098752328427565</v>
+        <v>1.025230217964008</v>
       </c>
       <c r="D8">
-        <v>0.04502632242768811</v>
+        <v>0.03712074357858342</v>
       </c>
       <c r="E8">
-        <v>0.06375762959570608</v>
+        <v>0.1219635037055369</v>
       </c>
       <c r="F8">
-        <v>1.616503545929433</v>
+        <v>2.372203309209226</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4488846923908767</v>
+        <v>1.190933588814289</v>
       </c>
       <c r="N8">
-        <v>1.537245818491783</v>
+        <v>1.027793371237564</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.726085186550279</v>
+        <v>5.12847055576475</v>
       </c>
       <c r="C9">
-        <v>0.4100269203997868</v>
+        <v>1.419594892843747</v>
       </c>
       <c r="D9">
-        <v>0.04551621620715451</v>
+        <v>0.04116950974400169</v>
       </c>
       <c r="E9">
-        <v>0.07376463389191201</v>
+        <v>0.1673843838187707</v>
       </c>
       <c r="F9">
-        <v>1.784988902980103</v>
+        <v>3.147353427198055</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.5601563451744482</v>
+        <v>1.649642784025176</v>
       </c>
       <c r="N9">
-        <v>1.525776409137237</v>
+        <v>1.017390668682424</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.987179816296816</v>
+        <v>6.230932870393701</v>
       </c>
       <c r="C10">
-        <v>0.4841779654797165</v>
+        <v>1.726807759649887</v>
       </c>
       <c r="D10">
-        <v>0.04600951389034691</v>
+        <v>0.04529575390317575</v>
       </c>
       <c r="E10">
-        <v>0.08136644222482659</v>
+        <v>0.203755030630127</v>
       </c>
       <c r="F10">
-        <v>1.914560368363624</v>
+        <v>3.770144744405428</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.6433245139769213</v>
+        <v>2.00888800627007</v>
       </c>
       <c r="N10">
-        <v>1.520198712223333</v>
+        <v>1.025946235021152</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.106884454330725</v>
+        <v>6.751711803496278</v>
       </c>
       <c r="C11">
-        <v>0.5180544894164996</v>
+        <v>1.872095289547644</v>
       </c>
       <c r="D11">
-        <v>0.04626399724232755</v>
+        <v>0.04751791148999018</v>
       </c>
       <c r="E11">
-        <v>0.08488230762623772</v>
+        <v>0.2212263892225792</v>
       </c>
       <c r="F11">
-        <v>1.974813923900285</v>
+        <v>4.069520374038348</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.6814913734585133</v>
+        <v>2.179243359810911</v>
       </c>
       <c r="N11">
-        <v>1.518293653530364</v>
+        <v>1.034418294437941</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.15235206318988</v>
+        <v>6.952278526321891</v>
       </c>
       <c r="C12">
-        <v>0.5309049487149764</v>
+        <v>1.928084747736079</v>
       </c>
       <c r="D12">
-        <v>0.04636478001050648</v>
+        <v>0.04841891687761546</v>
       </c>
       <c r="E12">
-        <v>0.08622224657718647</v>
+        <v>0.2280036357718345</v>
       </c>
       <c r="F12">
-        <v>1.997822884246318</v>
+        <v>4.185651721536345</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.695993890904802</v>
+        <v>2.244963111945751</v>
       </c>
       <c r="N12">
-        <v>1.51766432021094</v>
+        <v>1.03839390963627</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.142553593153252</v>
+        <v>6.908922966637078</v>
       </c>
       <c r="C13">
-        <v>0.528136365636044</v>
+        <v>1.915980013785941</v>
       </c>
       <c r="D13">
-        <v>0.04634287680991633</v>
+        <v>0.04822204275783548</v>
       </c>
       <c r="E13">
-        <v>0.08593328213702023</v>
+        <v>0.2265363599503729</v>
       </c>
       <c r="F13">
-        <v>1.992858882369234</v>
+        <v>4.160509688773686</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.6928682838774876</v>
+        <v>2.230751562605903</v>
       </c>
       <c r="N13">
-        <v>1.5177957449811</v>
+        <v>1.037501607319868</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.110622310977703</v>
+        <v>6.76814147325797</v>
       </c>
       <c r="C14">
-        <v>0.5191112527258497</v>
+        <v>1.876680964018362</v>
       </c>
       <c r="D14">
-        <v>0.04627219968785568</v>
+        <v>0.04759078100089909</v>
       </c>
       <c r="E14">
-        <v>0.08499237226347134</v>
+        <v>0.2217805466010603</v>
       </c>
       <c r="F14">
-        <v>1.976703010314225</v>
+        <v>4.079016272334741</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.68268350163234</v>
+        <v>2.184624555715459</v>
       </c>
       <c r="N14">
-        <v>1.518240026001294</v>
+        <v>1.034729294919273</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.091081582217782</v>
+        <v>6.682365480407555</v>
       </c>
       <c r="C15">
-        <v>0.5135860355192676</v>
+        <v>1.852741562569236</v>
       </c>
       <c r="D15">
-        <v>0.04622948562909102</v>
+        <v>0.0472121941078143</v>
       </c>
       <c r="E15">
-        <v>0.08441715968757535</v>
+        <v>0.218889391972958</v>
       </c>
       <c r="F15">
-        <v>1.966832220685575</v>
+        <v>4.029474076196379</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.6764515312012804</v>
+        <v>2.156534978957907</v>
       </c>
       <c r="N15">
-        <v>1.518524185800743</v>
+        <v>1.033134686982876</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.97937592942435</v>
+        <v>6.197334380960797</v>
       </c>
       <c r="C16">
-        <v>0.4819670823923161</v>
+        <v>1.717438607285033</v>
       </c>
       <c r="D16">
-        <v>0.04599349574555589</v>
+        <v>0.0451582774537016</v>
       </c>
       <c r="E16">
-        <v>0.08113785584102828</v>
+        <v>0.2026341535636504</v>
       </c>
       <c r="F16">
-        <v>1.910649353383661</v>
+        <v>3.75094012228783</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.6408370647884425</v>
+        <v>1.997911733506356</v>
       </c>
       <c r="N16">
-        <v>1.52033603317679</v>
+        <v>1.02549358980032</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.911089589106041</v>
+        <v>5.905104818728091</v>
       </c>
       <c r="C17">
-        <v>0.4626079122068631</v>
+        <v>1.63596799452057</v>
       </c>
       <c r="D17">
-        <v>0.04585649130098091</v>
+        <v>0.04399310957146696</v>
       </c>
       <c r="E17">
-        <v>0.07914108093479655</v>
+        <v>0.1929176839446853</v>
       </c>
       <c r="F17">
-        <v>1.87652137057708</v>
+        <v>3.584481850394951</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.6190752488235773</v>
+        <v>1.902517092860819</v>
       </c>
       <c r="N17">
-        <v>1.521610295426342</v>
+        <v>1.022050562212755</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.871900506117299</v>
+        <v>5.738794511965864</v>
       </c>
       <c r="C18">
-        <v>0.4514865818217686</v>
+        <v>1.589616983809606</v>
       </c>
       <c r="D18">
-        <v>0.04578051574191022</v>
+        <v>0.04335472518569361</v>
       </c>
       <c r="E18">
-        <v>0.07799801065640111</v>
+        <v>0.1874142522065796</v>
       </c>
       <c r="F18">
-        <v>1.857015012658849</v>
+        <v>3.490220108683332</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6065896944466971</v>
+        <v>1.84828641559713</v>
       </c>
       <c r="N18">
-        <v>1.522402659140639</v>
+        <v>1.020493775703656</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.858646645007582</v>
+        <v>5.682772809213191</v>
       </c>
       <c r="C19">
-        <v>0.4477233780573329</v>
+        <v>1.574005835391006</v>
       </c>
       <c r="D19">
-        <v>0.04575527433487991</v>
+        <v>0.0431437681635316</v>
       </c>
       <c r="E19">
-        <v>0.07761191034523307</v>
+        <v>0.1855647496852768</v>
       </c>
       <c r="F19">
-        <v>1.850431533835973</v>
+        <v>3.458546439633466</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.60236762099629</v>
+        <v>1.830028498462838</v>
       </c>
       <c r="N19">
-        <v>1.522681114199287</v>
+        <v>1.020036414534445</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.918349709972347</v>
+        <v>5.936025777739815</v>
       </c>
       <c r="C20">
-        <v>0.4646673167825384</v>
+        <v>1.644586851977692</v>
       </c>
       <c r="D20">
-        <v>0.04587078255442378</v>
+        <v>0.04411378803016675</v>
       </c>
       <c r="E20">
-        <v>0.07935307809231773</v>
+        <v>0.1939430115038192</v>
       </c>
       <c r="F20">
-        <v>1.880141579567464</v>
+        <v>3.602045339002302</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.6213885835580726</v>
+        <v>1.912604583580972</v>
       </c>
       <c r="N20">
-        <v>1.521468487744983</v>
+        <v>1.022372515925639</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.119997522320887</v>
+        <v>6.80939602125693</v>
       </c>
       <c r="C21">
-        <v>0.5217615351793938</v>
+        <v>1.888196093070633</v>
       </c>
       <c r="D21">
-        <v>0.04629283871240375</v>
+        <v>0.04777449363139397</v>
       </c>
       <c r="E21">
-        <v>0.08526850604746272</v>
+        <v>0.2231728187368205</v>
       </c>
       <c r="F21">
-        <v>1.98144313385751</v>
+        <v>4.102873810371108</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.6856736609248912</v>
+        <v>2.198138447493847</v>
       </c>
       <c r="N21">
-        <v>1.518107021846191</v>
+        <v>1.035521794762033</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.252592724921442</v>
+        <v>7.400128504246595</v>
       </c>
       <c r="C22">
-        <v>0.5592056774826233</v>
+        <v>2.053182782788156</v>
       </c>
       <c r="D22">
-        <v>0.0465944562997862</v>
+        <v>0.05052005737601917</v>
       </c>
       <c r="E22">
-        <v>0.0891845765622179</v>
+        <v>0.2432330348859253</v>
       </c>
       <c r="F22">
-        <v>2.048771900394655</v>
+        <v>4.446581015568711</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.727977308238394</v>
+        <v>2.391932477459434</v>
       </c>
       <c r="N22">
-        <v>1.516447316778013</v>
+        <v>1.048654809224359</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.181748969656098</v>
+        <v>7.082795645222063</v>
       </c>
       <c r="C23">
-        <v>0.5392087149083977</v>
+        <v>1.964530724169776</v>
       </c>
       <c r="D23">
-        <v>0.04643108834321197</v>
+        <v>0.04901857311514135</v>
       </c>
       <c r="E23">
-        <v>0.08708983740765319</v>
+        <v>0.2324282445045114</v>
       </c>
       <c r="F23">
-        <v>2.012733320925321</v>
+        <v>4.261465921601598</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7053720051120109</v>
+        <v>2.287762781012574</v>
       </c>
       <c r="N23">
-        <v>1.517283593028182</v>
+        <v>1.041188661937909</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.915067192714673</v>
+        <v>5.922041171381125</v>
       </c>
       <c r="C24">
-        <v>0.4637362335541297</v>
+        <v>1.640688760817454</v>
       </c>
       <c r="D24">
-        <v>0.04586431279468428</v>
+        <v>0.04405913194745636</v>
       </c>
       <c r="E24">
-        <v>0.07925721892691939</v>
+        <v>0.1934792053748353</v>
       </c>
       <c r="F24">
-        <v>1.878504527427594</v>
+        <v>3.594100442001718</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.6203426452986065</v>
+        <v>1.90804213527764</v>
       </c>
       <c r="N24">
-        <v>1.521532412904037</v>
+        <v>1.022225652144556</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.630732611316034</v>
+        <v>4.736162724735948</v>
       </c>
       <c r="C25">
-        <v>0.3828396058995054</v>
+        <v>1.310355782715305</v>
       </c>
       <c r="D25">
-        <v>0.04536063297872772</v>
+        <v>0.03989987161546082</v>
       </c>
       <c r="E25">
-        <v>0.07101474698392707</v>
+        <v>0.1546512257469814</v>
       </c>
       <c r="F25">
-        <v>1.738410230205375</v>
+        <v>2.929632318038301</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5298133770013607</v>
+        <v>1.52226999262416</v>
       </c>
       <c r="N25">
-        <v>1.528383477871927</v>
+        <v>1.017676184199601</v>
       </c>
       <c r="O25">
         <v>0</v>
